--- a/Docs/EstDesc_2017-02-09.xlsx
+++ b/Docs/EstDesc_2017-02-09.xlsx
@@ -428,13 +428,13 @@
         <v>5.162325581395349</v>
       </c>
       <c r="D3">
-        <v>5.08749160424206</v>
+        <v>5.08463753038405</v>
       </c>
       <c r="E3">
-        <v>5.144542167608488</v>
+        <v>5.156077920416423</v>
       </c>
       <c r="F3">
-        <v>5.162528613464371</v>
+        <v>5.185287749306963</v>
       </c>
     </row>
     <row r="4">
@@ -452,13 +452,13 @@
         <v>4.949999999999999</v>
       </c>
       <c r="D4">
-        <v>4.9837288888889</v>
+        <v>4.973532666666666</v>
       </c>
       <c r="E4">
-        <v>5.021384355709786</v>
+        <v>5.002106797855889</v>
       </c>
       <c r="F4">
-        <v>5.174783058917548</v>
+        <v>5.033448569246544</v>
       </c>
     </row>
     <row r="5">
@@ -476,13 +476,13 @@
         <v>1.3283</v>
       </c>
       <c r="D5">
-        <v>0.6128</v>
+        <v>0.6138</v>
       </c>
       <c r="E5">
-        <v>0.6117</v>
+        <v>0.8559</v>
       </c>
       <c r="F5">
-        <v>0.2587</v>
+        <v>0.8705000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -500,13 +500,13 @@
         <v>25.73020182887992</v>
       </c>
       <c r="D6">
-        <v>12.04557395241413</v>
+        <v>12.0719621704454</v>
       </c>
       <c r="E6">
-        <v>11.89081628227889</v>
+        <v>16.59927678868959</v>
       </c>
       <c r="F6">
-        <v>5.01159651160596</v>
+        <v>16.7883644878137</v>
       </c>
     </row>
     <row r="7">
@@ -524,13 +524,13 @@
         <v>3.04</v>
       </c>
       <c r="D7">
-        <v>3.9191332222222</v>
+        <v>3.912560111111089</v>
       </c>
       <c r="E7">
         <v>3.04</v>
       </c>
       <c r="F7">
-        <v>4.193715789615437</v>
+        <v>3.818755432624196</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>4.362500000000001</v>
       </c>
       <c r="D8">
-        <v>4.747345722222221</v>
+        <v>4.745395611111107</v>
       </c>
       <c r="E8">
-        <v>4.849993304017023</v>
+        <v>4.715682495344712</v>
       </c>
       <c r="F8">
-        <v>5.048305469767748</v>
+        <v>4.711671013076779</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +572,13 @@
         <v>5.614999999999999</v>
       </c>
       <c r="D9">
-        <v>5.235701555555559</v>
+        <v>5.237244500000005</v>
       </c>
       <c r="E9">
-        <v>5.22847581594341</v>
+        <v>5.320137852078103</v>
       </c>
       <c r="F9">
-        <v>5.238159033750804</v>
+        <v>5.427996164796122</v>
       </c>
     </row>
     <row r="10">
@@ -596,13 +596,13 @@
         <v>12.81</v>
       </c>
       <c r="D10">
-        <v>9.918561999999923</v>
+        <v>9.944062222222135</v>
       </c>
       <c r="E10">
         <v>12.81</v>
       </c>
       <c r="F10">
-        <v>8.725586254739316</v>
+        <v>11.69921915918497</v>
       </c>
     </row>
     <row r="11">
@@ -620,13 +620,13 @@
         <v>2.751208215989926</v>
       </c>
       <c r="D11">
-        <v>2.077824227963034</v>
+        <v>2.058603548609954</v>
       </c>
       <c r="E11">
-        <v>2.811055130506115</v>
+        <v>2.96321628702965</v>
       </c>
       <c r="F11">
-        <v>2.630706296470923</v>
+        <v>2.795275848396566</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +644,13 @@
         <v>12.94781352298011</v>
       </c>
       <c r="D12">
-        <v>6.766985065874092</v>
+        <v>6.699609290886782</v>
       </c>
       <c r="E12">
-        <v>12.7400855143736</v>
+        <v>12.85650659386833</v>
       </c>
       <c r="F12">
-        <v>24.6653102703718</v>
+        <v>11.74838837472383</v>
       </c>
     </row>
   </sheetData>
